--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2622.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2622.xlsx
@@ -354,7 +354,7 @@
         <v>1.658981749746541</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.727347895587754</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2622.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2622.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7885774790268215</v>
+        <v>1.278945326805115</v>
       </c>
       <c r="B1">
-        <v>1.658981749746541</v>
+        <v>2.322174072265625</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.89882755279541</v>
       </c>
       <c r="D1">
-        <v>1.727347895587754</v>
+        <v>2.886640071868896</v>
       </c>
       <c r="E1">
-        <v>0.9061606754305374</v>
+        <v>1.340027809143066</v>
       </c>
     </row>
   </sheetData>
